--- a/biology/Médecine/Stades_des_cancers_du_poumon/Stades_des_cancers_du_poumon.xlsx
+++ b/biology/Médecine/Stades_des_cancers_du_poumon/Stades_des_cancers_du_poumon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stades d'extension du cancer du poumon sont caractérisés par le degré d'extension du cancer à partir de son site originel. C'est un facteur important dans le pronostic médical et les traitements potentiels du cancer du poumon. 
 Le carcinome du poumon non à petites cellules (NSCLC) évolue du stade IA (« un A » ; le meilleur pronostic) IB ou II, à IV (« quatre », cancer métastatique). Le carcinome du poumon à petites cellules est classé comme au stade limité s'il est confiné à une moitié du thorax, et dans le champ d'une seule radiothérapie ; autrement, il est classé au stade extensif.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>T — Tumeur primitive
-TX : Tumeur ne peut être évaluée ou est démontrée par la présence de cellules malignes dans les expectorations ou un lavage bronchique sans visualisation de la tumeur par des examens endoscopiques ou d'imagerie.
+          <t>T — Tumeur primitive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TX : Tumeur ne peut être évaluée ou est démontrée par la présence de cellules malignes dans les expectorations ou un lavage bronchique sans visualisation de la tumeur par des examens endoscopiques ou d'imagerie.
 Tis : Carcinome in situ
 T1 : T &lt; ou égal à 3 cm, entourée par le poumon ou la plèvre viscérale, sans évidence bronchoscopique d'invasion plus proximale que la bronche lobaire (c-à-d pas la bronche souche) cm
 T2 : 3 &lt; T &lt; ou égal à 7 cm ou présentant une des caractéristiques suivantes :
@@ -529,15 +546,83 @@
 ou associée à une atélectasie ou à une pneumopathie obstructive du poumon entier ;
 ou présence d'un nodule tumoral distinct dans le même lobe
 T4: Tumeur de tout taille envahissant directement une des structures suivantes : médiastin, cœur, gros vaisseaux, trachée, nerf laryngé récurrent, œsophage, corps vertébral, carène trachéale;
-ou présence d'un nodule tumoral distinct dans un autre lobe du poumon atteint
-N — Ganglions lymphatiques régionaux
-NX : les ganglions lymphatiques ne peuvent pas être évalués
+ou présence d'un nodule tumoral distinct dans un autre lobe du poumon atteint</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stades_des_cancers_du_poumon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stades_des_cancers_du_poumon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Stades TNM 2009 0MS des carcinomes bronchiques (tout type)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N — Ganglions lymphatiques régionaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NX : les ganglions lymphatiques ne peuvent pas être évalués
 N0 : pas de métastase ganglionnaire lymphatique régionale
 N1 : métastase dans les ganglions lymphatiques intrapulmonaires, péribronchiques et/ou hilaires ipsilatéraux, y compris par envahissement direct
 N2 : métastase dans les ganglions lymphatiques médiastinaux ipsilatéraux et/ou sous- carinaires
-N3 : métastase dans les ganglions lymphatiques médiastinaux controlatéraux, hilaires controlatéraux, scalènes ou sus-claviculaires ipsilatéraux ou controlatéraux
-M — Métastase à distance
-MX : les métastases à distance n'ont pas pu être évaluées
+N3 : métastase dans les ganglions lymphatiques médiastinaux controlatéraux, hilaires controlatéraux, scalènes ou sus-claviculaires ipsilatéraux ou controlatéraux</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stades_des_cancers_du_poumon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stades_des_cancers_du_poumon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Stades TNM 2009 0MS des carcinomes bronchiques (tout type)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M — Métastase à distance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MX : les métastases à distance n'ont pas pu être évaluées
 M0 : absence de métastase à distance
 M1 : métastase à distance
 M1a : Nodule(s) tumoral distinct dans un lobe controlatéral ; tumeur avec nodules pleuraux ou épanchement pleural (ou épanchement péricardique) malin
@@ -545,62 +630,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Stades_des_cancers_du_poumon</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stades_des_cancers_du_poumon</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition en stades</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tumeurs in situ sont classées de stade 0. Toutes les tumeurs métastatiques sont classées stade IV. Les autres se répartissent selon le tableau suivant :
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Stades_des_cancers_du_poumon</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stades_des_cancers_du_poumon</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échoendoscopie bronchique et la médiastinoscopie sont les deux techniques les plus utilisées pour réaliser des biopsies des ganglions médiastinaux et qualifier l'extension ganglionnaire.
 </t>
